--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2727.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2727.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.162978181227885</v>
+        <v>0.8104699850082397</v>
       </c>
       <c r="B1">
-        <v>2.39767791355301</v>
+        <v>1.22692883014679</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.458017349243164</v>
       </c>
       <c r="D1">
-        <v>2.367485667966233</v>
+        <v>3.739233016967773</v>
       </c>
       <c r="E1">
-        <v>1.217100936737998</v>
+        <v>2.731669664382935</v>
       </c>
     </row>
   </sheetData>
